--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koral\Desktop\קורות חיים\RPA Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A83D2C-0732-4FFA-AB6F-BC60E22DB4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2252EE-0B42-4F21-AAD3-0887C3943C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="525" yWindow="1380" windowWidth="15375" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Done on</t>
   </si>
@@ -51,19 +51,31 @@
     <t>Spears</t>
   </si>
   <si>
-    <t>Britney @mail.com</t>
-  </si>
-  <si>
     <t>Jennifer</t>
   </si>
   <si>
-    <t>Jennifer@mail.com</t>
-  </si>
-  <si>
     <t>Lopez</t>
   </si>
   <si>
     <t>Aniston</t>
+  </si>
+  <si>
+    <t>Britney@mail.com</t>
+  </si>
+  <si>
+    <t>Lopez@mail.com</t>
+  </si>
+  <si>
+    <t>Aniston@mail.com</t>
+  </si>
+  <si>
+    <t>8/18/2022  3:19:36 PM</t>
+  </si>
+  <si>
+    <t>8/18/2022  3:20:00 PM</t>
+  </si>
+  <si>
+    <t>8/18/2022  3:20:27 PM</t>
   </si>
 </sst>
 </file>
@@ -442,7 +454,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,23 +495,25 @@
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>1234</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>5678</v>
@@ -507,17 +521,19 @@
       <c r="E3" s="2">
         <v>5678</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>1357</v>
@@ -525,11 +541,13 @@
       <c r="E4" s="2">
         <v>1414</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Israel@mail.com" xr:uid="{10E3D7CD-DDA4-44B8-A809-0AC72EE02487}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{10E3D7CD-DDA4-44B8-A809-0AC72EE02487}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{5DFD0517-4D2A-4E08-8CDB-F5D72E9ADE98}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{A8F88CDF-5FD3-48E0-AB48-85F3FCE71963}"/>
   </hyperlinks>
